--- a/Daten/Schulferien/FER2024_25.xlsx
+++ b/Daten/Schulferien/FER2024_25.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achim\OneDrive\Hochschule\DSC_Semester4\Data Analytics and Business Intelligence 2\Projekt\dabi2-project\Daten\Schulferien\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643AE0F5-E7B3-4EC9-B969-1C3A30DC2069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="11385"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
-  <si>
-    <t xml:space="preserve">FERIEN IM SCHULJAHR 2024/2025</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">in den Ländern in der Bundesrepublik Deutschland¹</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>http://www.kmk.org/ferienkalender.html</t>
-  </si>
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Land*</t>
   </si>
@@ -71,7 +54,7 @@
 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Baden-Württemberg (5)</t>
+    <t>Baden-Württemberg (5)</t>
   </si>
   <si>
     <r>
@@ -79,7 +62,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">28.10. - 30.10.</t>
+      <t>28.10. - 30.10.</t>
     </r>
     <r>
       <rPr>
@@ -92,41 +75,41 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">23.12. - 04.01.</t>
+    <t>23.12. - 04.01.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">14.04. - 26.04.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.06. - 20.06.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.07. - 13.09.</t>
+    <t>14.04. - 26.04.</t>
+  </si>
+  <si>
+    <t>10.06. - 20.06.</t>
+  </si>
+  <si>
+    <t>31.07. - 13.09.</t>
   </si>
   <si>
     <t>Bayern</t>
   </si>
   <si>
-    <t xml:space="preserve">28.10. - 31.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. - 03.01.</t>
+    <t>28.10. - 31.10.</t>
+  </si>
+  <si>
+    <t>23.12. - 03.01.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">03.03. - 07.03.
+    <t>03.03. - 07.03.
 14.04. - 25.04.</t>
   </si>
   <si>
-    <t xml:space="preserve">10.06. - 20.06.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.08.
+    <t>10.06. - 20.06.</t>
+  </si>
+  <si>
+    <t>01.08.
 04.08. - 15.09.</t>
   </si>
   <si>
@@ -151,10 +134,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">23.12. - 31.12.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.02. - 08.02.</t>
+    <t>23.12. - 31.12.</t>
+  </si>
+  <si>
+    <t>03.02. - 08.02.</t>
   </si>
   <si>
     <r>
@@ -162,7 +145,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">14.04. - 25.04.</t>
+      <t>14.04. - 25.04.</t>
     </r>
     <r>
       <rPr>
@@ -193,44 +176,44 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">24.07. - 06.09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandenburg (3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.10. - 02.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. - 31.12.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.02. - 08.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.04. - 25.04.</t>
+    <t>24.07. - 06.09.</t>
+  </si>
+  <si>
+    <t>Brandenburg (3)</t>
+  </si>
+  <si>
+    <t>21.10. - 02.11.</t>
+  </si>
+  <si>
+    <t>23.12. - 31.12.</t>
+  </si>
+  <si>
+    <t>03.02. - 08.02.</t>
+  </si>
+  <si>
+    <t>14.04. - 25.04.</t>
   </si>
   <si>
     <t>10.06.</t>
   </si>
   <si>
-    <t xml:space="preserve">24.07. - 06.09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bremen (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.10. - 19.10.
+    <t>24.07. - 06.09.</t>
+  </si>
+  <si>
+    <t>Bremen (2)</t>
+  </si>
+  <si>
+    <t>04.10. - 19.10.
 01.11.</t>
   </si>
   <si>
-    <t xml:space="preserve">23.12. - 04.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.02. - 04.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.04 - 19.04.
+    <t>23.12. - 04.01.</t>
+  </si>
+  <si>
+    <t>03.02. - 04.02.</t>
+  </si>
+  <si>
+    <t>07.04 - 19.04.
 30.04. und 02.05.</t>
   </si>
   <si>
@@ -238,91 +221,91 @@
 10.06.</t>
   </si>
   <si>
-    <t xml:space="preserve">03.07. – 13.08.</t>
+    <t>03.07. – 13.08.</t>
   </si>
   <si>
     <t>Hamburg</t>
   </si>
   <si>
-    <t xml:space="preserve">04.10.
+    <t>04.10.
 21.10. - 01.11.</t>
   </si>
   <si>
-    <t xml:space="preserve">20.12. - 03.01.</t>
+    <t>20.12. - 03.01.</t>
   </si>
   <si>
     <t>31.01.</t>
   </si>
   <si>
-    <t xml:space="preserve">10.03. - 21.03.
+    <t>10.03. - 21.03.
 02.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">26.05. - 30.05.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.07. - 03.09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hessen (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.10. - 25.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. - 10.01.</t>
+    <t>26.05. - 30.05.</t>
+  </si>
+  <si>
+    <t>24.07. - 03.09.</t>
+  </si>
+  <si>
+    <t>Hessen (4)</t>
+  </si>
+  <si>
+    <t>14.10. - 25.10.</t>
+  </si>
+  <si>
+    <t>23.12. - 10.01.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">07.04. - 21.04.</t>
+    <t>07.04. - 21.04.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">07.07. - 15.08.</t>
+    <t>07.07. - 15.08.</t>
   </si>
   <si>
     <t>Mecklenburg-Vorpommern</t>
   </si>
   <si>
-    <t xml:space="preserve">04.10.
+    <t>04.10.
 21.10. - 26.10.
 01.11.</t>
   </si>
   <si>
-    <t xml:space="preserve">23.12. - 06.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.02. - 14.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.04. - 23.04.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.05.
+    <t>23.12. - 06.01.</t>
+  </si>
+  <si>
+    <t>03.02. - 14.02.</t>
+  </si>
+  <si>
+    <t>14.04. - 23.04.</t>
+  </si>
+  <si>
+    <t>30.05.
 06.06. - 10.06.</t>
   </si>
   <si>
-    <t xml:space="preserve">28.07. - 06.09.</t>
+    <t>28.07. - 06.09.</t>
   </si>
   <si>
     <t>Niedersachsen</t>
   </si>
   <si>
-    <t xml:space="preserve">04.10. - 19.10.
+    <t>04.10. - 19.10.
 01.11.</t>
   </si>
   <si>
-    <t xml:space="preserve">23.12. - 04.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.02. - 04.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.04. - 19.04.
+    <t>23.12. - 04.01.</t>
+  </si>
+  <si>
+    <t>03.02. - 04.02.</t>
+  </si>
+  <si>
+    <t>07.04. - 19.04.
 30.04. und 02.05.</t>
   </si>
   <si>
@@ -330,113 +313,113 @@
 10.06.</t>
   </si>
   <si>
-    <t xml:space="preserve">03.07. - 13.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordrhein-Westfalen (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.10. - 26.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. - 06.01.</t>
+    <t>03.07. - 13.08.</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen (4)</t>
+  </si>
+  <si>
+    <t>14.10. - 26.10.</t>
+  </si>
+  <si>
+    <t>23.12. - 06.01.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">14.04. - 26.04.</t>
+    <t>14.04. - 26.04.</t>
   </si>
   <si>
     <t>10.06.</t>
   </si>
   <si>
-    <t xml:space="preserve">14.07. - 26.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheinland-Pfalz (6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.10. - 25.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. - 08.01.</t>
+    <t>14.07. - 26.08.</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz (6)</t>
+  </si>
+  <si>
+    <t>14.10. - 25.10.</t>
+  </si>
+  <si>
+    <t>23.12. - 08.01.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">14.04. - 25.04.</t>
+    <t>14.04. - 25.04.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">07.07. - 15.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saarland (3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.10. - 25.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. - 03.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.02. - 04.03.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.04. - 25.04.</t>
+    <t>07.07. - 15.08.</t>
+  </si>
+  <si>
+    <t>Saarland (3)</t>
+  </si>
+  <si>
+    <t>14.10. - 25.10.</t>
+  </si>
+  <si>
+    <t>23.12. - 03.01.</t>
+  </si>
+  <si>
+    <t>24.02. - 04.03.</t>
+  </si>
+  <si>
+    <t>14.04. - 25.04.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">07.07. - 14.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.10. - 19.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. - 03.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.02. - 01.03.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.04. - 25.04.</t>
+    <t>07.07. - 14.08.</t>
+  </si>
+  <si>
+    <t>Sachsen (1)</t>
+  </si>
+  <si>
+    <t>07.10. - 19.10.</t>
+  </si>
+  <si>
+    <t>23.12. - 03.01.</t>
+  </si>
+  <si>
+    <t>17.02. - 01.03.</t>
+  </si>
+  <si>
+    <t>18.04. - 25.04.</t>
   </si>
   <si>
     <t>30.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">28.06. - 08.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen-Anhalt (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.09. - 12.10.
+    <t>28.06. - 08.08.</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt (1)</t>
+  </si>
+  <si>
+    <t>30.09. - 12.10.
 01.11.</t>
   </si>
   <si>
-    <t xml:space="preserve">23.12. - 04.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.01. - 31.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.04. - 19.04.</t>
+    <t>23.12. - 04.01.</t>
+  </si>
+  <si>
+    <t>27.01. - 31.01.</t>
+  </si>
+  <si>
+    <t>07.04. - 19.04.</t>
   </si>
   <si>
     <t>30.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">28.06. - 08.08.</t>
+    <t>28.06. - 08.08.</t>
   </si>
   <si>
     <r>
@@ -444,95 +427,95 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Schleswig-Holstein (3) ²</t>
+      <t>Schleswig-Holstein (3) ²</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">21.10. - 01.11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.12. - 07.01.</t>
+    <t>21.10. - 01.11.</t>
+  </si>
+  <si>
+    <t>19.12. - 07.01.</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t xml:space="preserve">11.04. - 25.04.</t>
+    <t>11.04. - 25.04.</t>
   </si>
   <si>
     <t>30.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">28.07. - 06.09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thüringen (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.09. - 12.10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.12. - 03.01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.02. - 08.02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.04. - 19.04.</t>
+    <t>28.07. - 06.09.</t>
+  </si>
+  <si>
+    <t>Thüringen (2)</t>
+  </si>
+  <si>
+    <t>30.09. - 12.10.</t>
+  </si>
+  <si>
+    <t>23.12. - 03.01.</t>
+  </si>
+  <si>
+    <t>03.02. - 08.02.</t>
+  </si>
+  <si>
+    <t>07.04. - 19.04.</t>
   </si>
   <si>
     <t>30.05.</t>
   </si>
   <si>
-    <t xml:space="preserve">28.06. - 08.08.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*in Klammern ist die Zahl der beweglichen Ferientage angegeben.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stand: 17.05.2023</t>
+    <t>28.06. - 08.08.</t>
+  </si>
+  <si>
+    <t>*in Klammern ist die Zahl der beweglichen Ferientage angegeben.</t>
+  </si>
+  <si>
+    <t>Stand: 17.05.2023</t>
   </si>
   <si>
     <t>¹</t>
   </si>
   <si>
-    <t xml:space="preserve">Angegeben ist jeweils der erste und letzte Ferientag.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">- Während die Kultusministerkonferenz die Sommerferien langfristig vereinbart, werden die übrigen Ferientermine von den Ländern selbst bestimmt. Die Länder übermitteln ihre Ferien-</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">termine dem Sekretariat der Kultusministerkonferenz, das sie als Übersicht veröffentlicht. Konkrete Nachfragen bezüglich der Ferienregelungen sind bei den Schulverwaltungen der
+    <t>Angegeben ist jeweils der erste und letzte Ferientag.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>- Während die Kultusministerkonferenz die Sommerferien langfristig vereinbart, werden die übrigen Ferientermine von den Ländern selbst bestimmt. Die Länder übermitteln ihre Ferien-</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>termine dem Sekretariat der Kultusministerkonferenz, das sie als Übersicht veröffentlicht. Konkrete Nachfragen bezüglich der Ferienregelungen sind bei den Schulverwaltungen der
 Länder zu stellen.</t>
   </si>
   <si>
@@ -542,16 +525,16 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">- Schul- und unterrichtsfreie Tage sind kursiv gekennzeichnet.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">- Die Veröffentlichung erfolgt fortlaufend.</t>
+    <t>- Schul- und unterrichtsfreie Tage sind kursiv gekennzeichnet.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>- Die Veröffentlichung erfolgt fortlaufend.</t>
   </si>
   <si>
     <t/>
@@ -563,7 +546,7 @@
     <t>SH:</t>
   </si>
   <si>
-    <t xml:space="preserve">Auf den Inseln Sylt, Föhr, Amrum und Helgoland sowie auf den Halligen gelten für die Sommer- und Herbstferien Sonderregelungen.</t>
+    <t>Auf den Inseln Sylt, Föhr, Amrum und Helgoland sowie auf den Halligen gelten für die Sommer- und Herbstferien Sonderregelungen.</t>
   </si>
   <si>
     <t/>
@@ -587,39 +570,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <color rgb="FF0563C1"/>
-      <u/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
@@ -648,6 +608,15 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -698,67 +667,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -774,51 +737,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>299605</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>153416</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -834,16 +753,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1128,560 +1053,562 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="53"/>
-    <col min="2" max="2" width="15"/>
-    <col min="3" max="3" width="15"/>
-    <col min="4" max="4" width="15"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="4" width="15"/>
     <col min="5" max="5" width="17"/>
     <col min="6" max="6" width="18"/>
     <col min="7" max="7" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25" ht="19" customHeight="1">
+    <row r="1" spans="1:7" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25" ht="15" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25" ht="24" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="25" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25" ht="25" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25" ht="25" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25" ht="23" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25" ht="25" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25" ht="25" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="G7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="12" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="D9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="E9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="F9" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25" ht="35" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="G9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="7" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="E10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25" ht="25" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="G10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="7" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="E11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="F11" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25" ht="23" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="G11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="E12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="F12" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25" ht="23" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="G12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="E13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="F13" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25" ht="23" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="G13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="D14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="E14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25" ht="23" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="G14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="D15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="E15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="F15" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25" ht="25" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="G15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="7" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="E16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="F16" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25" ht="23" customHeight="1">
-      <c r="A19" s="8" t="s">
+      <c r="G16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="6" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="B17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="D17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="E17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="G17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="B23" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="C23" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="D23" s="14" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A21" s="13" t="s">
+      <c r="E23" s="14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A23" s="15" t="s">
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C24" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D24" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E24" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F24" s="16" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A24" s="16" t="s">
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="16" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25" ht="25" customHeight="1">
-      <c r="A25" s="0" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B27" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C27" s="16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A26" s="16" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B28" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C28" s="13" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A27" s="16" t="s">
+      <c r="D28" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="E28" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="F28" s="14" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A28" s="15" t="s">
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25" ht="32" customHeight="1">
-      <c r="A29" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="C28:G28"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="C28:G28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/Daten/Schulferien/FER2024_25.xlsx
+++ b/Daten/Schulferien/FER2024_25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achim\OneDrive\Hochschule\DSC_Semester4\Data Analytics and Business Intelligence 2\Projekt\dabi2-project\Daten\Schulferien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93680e6007ede3e3/Hochschule/DSC_Semester4/Data Analytics and Business Intelligence 2/Projekt/dabi2-project/Daten/Schulferien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643AE0F5-E7B3-4EC9-B969-1C3A30DC2069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{643AE0F5-E7B3-4EC9-B969-1C3A30DC2069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28F9B92F-5DDE-41C5-BAC6-408F41CC219B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Land*</t>
   </si>
@@ -468,103 +468,6 @@
   </si>
   <si>
     <t>28.06. - 08.08.</t>
-  </si>
-  <si>
-    <t>*in Klammern ist die Zahl der beweglichen Ferientage angegeben.</t>
-  </si>
-  <si>
-    <t>Stand: 17.05.2023</t>
-  </si>
-  <si>
-    <t>¹</t>
-  </si>
-  <si>
-    <t>Angegeben ist jeweils der erste und letzte Ferientag.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>- Während die Kultusministerkonferenz die Sommerferien langfristig vereinbart, werden die übrigen Ferientermine von den Ländern selbst bestimmt. Die Länder übermitteln ihre Ferien-</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>termine dem Sekretariat der Kultusministerkonferenz, das sie als Übersicht veröffentlicht. Konkrete Nachfragen bezüglich der Ferienregelungen sind bei den Schulverwaltungen der
-Länder zu stellen.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>- Schul- und unterrichtsfreie Tage sind kursiv gekennzeichnet.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>- Die Veröffentlichung erfolgt fortlaufend.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>²</t>
-  </si>
-  <si>
-    <t>SH:</t>
-  </si>
-  <si>
-    <t>Auf den Inseln Sylt, Föhr, Amrum und Helgoland sowie auf den Halligen gelten für die Sommer- und Herbstferien Sonderregelungen.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -710,13 +613,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -734,61 +637,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>537350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>377952</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1056,11 +904,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="4" width="15"/>
@@ -1069,7 +917,7 @@
     <col min="7" max="7" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1161,7 +1009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1184,7 +1032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1207,7 +1055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -1230,7 +1078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
@@ -1253,7 +1101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
@@ -1276,7 +1124,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
@@ -1299,7 +1147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
@@ -1322,7 +1170,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -1345,7 +1193,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
@@ -1368,7 +1216,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>91</v>
       </c>
@@ -1391,7 +1239,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
@@ -1414,7 +1262,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>105</v>
       </c>
@@ -1437,7 +1285,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>112</v>
       </c>
@@ -1460,145 +1308,77 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>150</v>
-      </c>
+    <row r="18" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1611,6 +1391,5 @@
     <mergeCell ref="B26:G26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>